--- a/controllers/data.xlsx
+++ b/controllers/data.xlsx
@@ -602,7 +602,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.66"/>
